--- a/docs/Направления подготовки (2017).xlsx
+++ b/docs/Направления подготовки (2017).xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Бакалавриат" sheetId="1" r:id="rId1"/>
     <sheet name="Магистратура" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Бакалавриат!$A$1:$A$90</definedName>
@@ -1687,98 +1686,162 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1822,140 +1885,76 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,7 +2046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2082,7 +2081,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2293,9 +2292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47:D49"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,64 +2312,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="153"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="175"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="183" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="172"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="146" t="s">
+      <c r="A3" s="176"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="146" t="s">
+      <c r="F3" s="188"/>
+      <c r="G3" s="185" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="146" t="s">
+      <c r="H3" s="188"/>
+      <c r="I3" s="185" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="170"/>
+      <c r="J3" s="186"/>
     </row>
     <row r="4" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="155"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="A4" s="177"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="22" t="s">
         <v>116</v>
       </c>
@@ -2391,7 +2390,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="151" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2423,51 +2422,51 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="168" t="s">
+      <c r="A6" s="152"/>
+      <c r="B6" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="123" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="156" t="s">
+      <c r="E6" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="158">
+      <c r="F6" s="180">
         <v>27</v>
       </c>
-      <c r="G6" s="158" t="s">
+      <c r="G6" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="158">
-        <v>36</v>
-      </c>
-      <c r="I6" s="158" t="s">
+      <c r="H6" s="180">
+        <v>36</v>
+      </c>
+      <c r="I6" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="148">
+      <c r="J6" s="189">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="163"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="148"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="189"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="15" t="s">
         <v>124</v>
       </c>
@@ -2497,7 +2496,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="165"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="64" t="s">
         <v>125</v>
       </c>
@@ -2527,7 +2526,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="165"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="15" t="s">
         <v>126</v>
       </c>
@@ -2557,7 +2556,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="86" t="s">
         <v>195</v>
       </c>
@@ -2587,7 +2586,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="97" t="s">
         <v>127</v>
       </c>
@@ -2733,53 +2732,53 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="128" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="145">
+      <c r="F17" s="187">
         <v>32</v>
       </c>
-      <c r="G17" s="145" t="s">
+      <c r="G17" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="145">
+      <c r="H17" s="187">
         <v>43</v>
       </c>
-      <c r="I17" s="145" t="s">
+      <c r="I17" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="J17" s="145">
+      <c r="J17" s="187">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="193"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="171"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="171"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="193"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="64" t="s">
         <v>139</v>
       </c>
@@ -2809,7 +2808,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="193"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="15" t="s">
         <v>141</v>
       </c>
@@ -2839,7 +2838,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="193"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="64" t="s">
         <v>135</v>
       </c>
@@ -2869,7 +2868,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="193"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="93" t="s">
         <v>142</v>
       </c>
@@ -2899,7 +2898,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="193"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="64" t="s">
         <v>143</v>
       </c>
@@ -2929,7 +2928,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="193"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="97" t="s">
         <v>145</v>
       </c>
@@ -2959,95 +2958,95 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="193"/>
-      <c r="B25" s="168" t="s">
+      <c r="A25" s="119"/>
+      <c r="B25" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="163" t="s">
+      <c r="C25" s="123" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="131">
+      <c r="F25" s="190">
         <v>27</v>
       </c>
-      <c r="G25" s="200" t="s">
+      <c r="G25" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="131">
-        <v>36</v>
-      </c>
-      <c r="I25" s="131" t="s">
+      <c r="H25" s="190">
+        <v>36</v>
+      </c>
+      <c r="I25" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="138">
+      <c r="J25" s="191">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="193"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="163"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="172"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="139"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="192"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="193"/>
-      <c r="B27" s="195" t="s">
+      <c r="A27" s="119"/>
+      <c r="B27" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="186" t="s">
+      <c r="C27" s="124" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="140" t="s">
+      <c r="E27" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="142">
+      <c r="F27" s="140">
         <v>27</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="142">
-        <v>36</v>
-      </c>
-      <c r="I27" s="142" t="s">
+      <c r="H27" s="140">
+        <v>36</v>
+      </c>
+      <c r="I27" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="J27" s="198">
+      <c r="J27" s="142">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="194"/>
-      <c r="B28" s="196"/>
-      <c r="C28" s="141"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="141"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="199"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="195"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="192" t="s">
+      <c r="A29" s="118" t="s">
         <v>180</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -3079,7 +3078,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="193"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="64" t="s">
         <v>148</v>
       </c>
@@ -3109,7 +3108,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="193"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="15" t="s">
         <v>147</v>
       </c>
@@ -3139,7 +3138,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="193"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="64" t="s">
         <v>149</v>
       </c>
@@ -3169,7 +3168,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="193"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="35" t="s">
         <v>151</v>
       </c>
@@ -3199,7 +3198,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="194"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="88" t="s">
         <v>198</v>
       </c>
@@ -3229,153 +3228,153 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="192" t="s">
+      <c r="A35" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="173" t="s">
+      <c r="C35" s="155" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="205" t="s">
+      <c r="E35" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="206">
+      <c r="F35" s="147">
         <v>27</v>
       </c>
-      <c r="G35" s="206" t="s">
+      <c r="G35" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="206">
-        <v>36</v>
-      </c>
-      <c r="I35" s="206" t="s">
+      <c r="H35" s="147">
+        <v>36</v>
+      </c>
+      <c r="I35" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="J35" s="207">
+      <c r="J35" s="149">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="193"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="163"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="123"/>
       <c r="D36" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="172"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="208"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="150"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="193"/>
-      <c r="B37" s="175" t="s">
+      <c r="A37" s="119"/>
+      <c r="B37" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="171" t="s">
+      <c r="C37" s="129" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="123" t="s">
+      <c r="E37" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="125">
+      <c r="F37" s="132">
         <v>27</v>
       </c>
-      <c r="G37" s="125" t="s">
+      <c r="G37" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="125">
-        <v>36</v>
-      </c>
-      <c r="I37" s="125" t="s">
+      <c r="H37" s="132">
+        <v>36</v>
+      </c>
+      <c r="I37" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="127">
+      <c r="J37" s="134">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="193"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="171"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="135"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="188"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="135"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="193"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="171"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="135"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="188"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="135"/>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="193"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="171"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="188"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="135"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="193"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="171"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="135"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="188"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="135"/>
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="193"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="123"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="158"/>
       <c r="D42" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="135"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="188"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="135"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="194"/>
+      <c r="A43" s="120"/>
       <c r="B43" s="103" t="s">
         <v>137</v>
       </c>
@@ -3405,121 +3404,121 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="172" t="s">
+      <c r="C44" s="146" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="129" t="s">
+      <c r="E44" s="205" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="130">
+      <c r="F44" s="206">
         <v>27</v>
       </c>
-      <c r="G44" s="130" t="s">
+      <c r="G44" s="206" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="130">
-        <v>36</v>
-      </c>
-      <c r="I44" s="120" t="s">
+      <c r="H44" s="206">
+        <v>36</v>
+      </c>
+      <c r="I44" s="198" t="s">
         <v>128</v>
       </c>
-      <c r="J44" s="122">
+      <c r="J44" s="202">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="165"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="163"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="129"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="122"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="202"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="163"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="122"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="206"/>
+      <c r="G46" s="206"/>
+      <c r="H46" s="206"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="202"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
-      <c r="B47" s="182" t="s">
+      <c r="A47" s="152"/>
+      <c r="B47" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="185" t="s">
+      <c r="C47" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="189" t="s">
+      <c r="D47" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="140" t="s">
+      <c r="E47" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="144">
+      <c r="F47" s="139">
         <v>27</v>
       </c>
-      <c r="G47" s="144" t="s">
+      <c r="G47" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="144">
-        <v>36</v>
-      </c>
-      <c r="I47" s="144" t="s">
+      <c r="H47" s="139">
+        <v>36</v>
+      </c>
+      <c r="I47" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="J47" s="198">
+      <c r="J47" s="142">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
-      <c r="B48" s="183"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="203"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="143"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="185"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="187"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="202"/>
-      <c r="H49" s="202"/>
-      <c r="I49" s="202"/>
-      <c r="J49" s="204"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="201"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="144"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="165"/>
+      <c r="A50" s="152"/>
       <c r="B50" s="64" t="s">
         <v>158</v>
       </c>
@@ -3549,7 +3548,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="166"/>
+      <c r="A51" s="153"/>
       <c r="B51" s="97" t="s">
         <v>130</v>
       </c>
@@ -3579,49 +3578,49 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="166"/>
-      <c r="B52" s="168" t="s">
+      <c r="A52" s="153"/>
+      <c r="B52" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="118" t="s">
+      <c r="D52" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="E52" s="131" t="s">
+      <c r="E52" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="120">
+      <c r="F52" s="198">
         <v>43</v>
       </c>
-      <c r="G52" s="131" t="s">
+      <c r="G52" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="H52" s="120">
-        <v>36</v>
-      </c>
-      <c r="I52" s="131" t="s">
+      <c r="H52" s="198">
+        <v>36</v>
+      </c>
+      <c r="I52" s="190" t="s">
         <v>144</v>
       </c>
-      <c r="J52" s="133">
+      <c r="J52" s="207">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="167"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="134"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="200"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="200"/>
+      <c r="H53" s="199"/>
+      <c r="I53" s="200"/>
+      <c r="J53" s="208"/>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="164" t="s">
+      <c r="A54" s="151" t="s">
         <v>181</v>
       </c>
       <c r="B54" s="80" t="s">
@@ -3653,53 +3652,53 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="165"/>
-      <c r="B55" s="179" t="s">
+      <c r="A55" s="152"/>
+      <c r="B55" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="123" t="s">
+      <c r="C55" s="158" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="123" t="s">
+      <c r="E55" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="125">
+      <c r="F55" s="132">
         <v>27</v>
       </c>
-      <c r="G55" s="125" t="s">
+      <c r="G55" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="125">
-        <v>36</v>
-      </c>
-      <c r="I55" s="125" t="s">
+      <c r="H55" s="132">
+        <v>36</v>
+      </c>
+      <c r="I55" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="J55" s="127">
+      <c r="J55" s="134">
         <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="165"/>
-      <c r="B56" s="180"/>
-      <c r="C56" s="135"/>
+      <c r="A56" s="152"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="166"/>
       <c r="D56" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="124"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="203"/>
+      <c r="G56" s="203"/>
+      <c r="H56" s="203"/>
+      <c r="I56" s="203"/>
+      <c r="J56" s="204"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="165"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="124"/>
+      <c r="A57" s="152"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="128"/>
       <c r="D57" s="89" t="s">
         <v>25</v>
       </c>
@@ -3723,7 +3722,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="165"/>
+      <c r="A58" s="152"/>
       <c r="B58" s="64" t="s">
         <v>156</v>
       </c>
@@ -3753,7 +3752,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="167"/>
+      <c r="A59" s="154"/>
       <c r="B59" s="16" t="s">
         <v>157</v>
       </c>
@@ -4002,14 +4001,79 @@
   </sheetData>
   <autoFilter ref="A1:A90"/>
   <mergeCells count="97">
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
     <mergeCell ref="I37:I42"/>
     <mergeCell ref="J37:J42"/>
     <mergeCell ref="H37:H42"/>
@@ -4026,79 +4090,14 @@
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -4112,11 +4111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,7 +4154,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="118" t="s">
         <v>207</v>
       </c>
       <c r="B3" s="215" t="s">
@@ -4172,7 +4171,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="216"/>
       <c r="C4" s="213"/>
       <c r="D4" s="1" t="s">
@@ -4183,7 +4182,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="216"/>
       <c r="C5" s="213"/>
       <c r="D5" s="31" t="s">
@@ -4194,7 +4193,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="50" t="s">
         <v>172</v>
       </c>
@@ -4209,7 +4208,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="194"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="35" t="s">
         <v>171</v>
       </c>
@@ -4224,7 +4223,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="118" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -4241,7 +4240,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="194"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="37" t="s">
         <v>165</v>
       </c>
@@ -4273,7 +4272,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="166"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="41" t="s">
         <v>167</v>
       </c>
@@ -4288,7 +4287,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="118" t="s">
         <v>209</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -4305,7 +4304,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="194"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="103" t="s">
         <v>163</v>
       </c>
@@ -4320,7 +4319,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="118" t="s">
         <v>210</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -4337,7 +4336,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="61" t="s">
         <v>204</v>
       </c>
@@ -4350,7 +4349,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="44" t="s">
         <v>205</v>
       </c>
@@ -4363,7 +4362,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="61" t="s">
         <v>203</v>
       </c>
@@ -4376,7 +4375,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="193"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="107" t="s">
         <v>169</v>
       </c>
@@ -4391,7 +4390,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="193"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="59" t="s">
         <v>170</v>
       </c>
@@ -4406,7 +4405,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="193"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="107" t="s">
         <v>183</v>
       </c>
@@ -4421,7 +4420,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="194"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="103" t="s">
         <v>186</v>
       </c>
@@ -4436,7 +4435,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="118" t="s">
         <v>211</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -4453,7 +4452,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="193"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="35" t="s">
         <v>174</v>
       </c>
@@ -4468,7 +4467,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="193"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="56" t="s">
         <v>175</v>
       </c>
@@ -4483,7 +4482,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="193"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="35" t="s">
         <v>176</v>
       </c>
@@ -4498,7 +4497,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="193"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="56" t="s">
         <v>177</v>
       </c>
@@ -4513,7 +4512,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="194"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="37" t="s">
         <v>178</v>
       </c>
@@ -4542,17 +4541,4 @@
   <pageMargins left="0.70866141732283472" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>